--- a/spreadsheet/macrofree/blob_storage_security_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/blob_storage_security_checklist.ko.xlsx
@@ -1074,7 +1074,7 @@
       </c>
       <c r="D8" s="21" t="inlineStr">
         <is>
-          <t>스토리지와 관련된 Microsoft 클라우드 보안 벤치마크의 지침 적용Apply guidance from the Microsoft cloud security benchmark related to Storage</t>
+          <t>스토리지와 관련된 Microsoft 클라우드 보안 벤치마크의 지침 적용</t>
         </is>
       </c>
       <c r="E8" s="21" t="inlineStr">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="D9" s="21" t="inlineStr">
         <is>
-          <t>Azure Storage는 기본적으로 공용 IP 주소를 가지며 인터넷에 연결할 수 있습니다. 프라이빗 엔드포인트를 사용하면 액세스가 필요한 Azure 컴퓨팅 리소스에만 Azure Storage를 안전하게 노출할 수 있으므로 공용 인터넷에 대한 노출을 방지할 수 있습니다</t>
+          <t>Azure Storage는 기본적으로 공용 IP 주소를 가지며 인터넷에 연결할 수 있습니다. 프라이빗 엔드포인트를 사용하면 액세스가 필요한 Azure Compute 리소스에만 Azure Storage를 안전하게 노출할 수 있으므로 공용 인터넷에 노출되지 않습니다</t>
         </is>
       </c>
       <c r="E9" s="21" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>이전 스토리지 계정이 '클래식 배포 모델'을 사용하지 않는지 확인Ensure older storage accounts are not using 'classic deployment model'</t>
+          <t>이전 스토리지 계정이 '클래식 배포 모델'을 사용하지 않는지 확인</t>
         </is>
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>새로 만든 스토리지 계정은 ARM 배포 모델을 사용하여 만들어지므로 RBAC, 감사 등을 모두 사용할 수 있습니다. 구독에 클래식 배포 모델이 있는 이전 저장소 계정이 없는지 확인Ensure that there are no old storage accounts with classic deployment model in a subscription</t>
+          <t>새로 만든 저장소 계정은 ARM 배포 모델을 사용하여 만들어지므로 RBAC, 감사 등을 모두 사용할 수 있습니다. 구독에 클래식 배포 모델이 있는 이전 저장소 계정이 없는지 확인합니다.</t>
         </is>
       </c>
       <c r="E10" s="21" t="inlineStr">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="B11" s="21" t="inlineStr">
         <is>
-          <t>거버넌스</t>
+          <t>지배구조</t>
         </is>
       </c>
       <c r="C11" s="21" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Blob에 대해 '일시 삭제' 사용Enable '일시 삭제' for blobs</t>
+          <t>Blob에 대해 '일시 삭제' 사용Enable 'soft delete' for blobs</t>
         </is>
       </c>
       <c r="D12" s="21" t="inlineStr">
@@ -1319,12 +1319,12 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Blob에 대해 '일시 삭제' 사용 안 함Disable 'soft delete' for blobs</t>
+          <t>Blob에 대해 '일시 삭제' 사용 안 함</t>
         </is>
       </c>
       <c r="D13" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">특정 Blob 컨테이너에 대해 '일시 삭제'를 선택적으로 사용하지 않도록 설정하는 것이 좋습니다(예: 애플리케이션이 삭제된 정보를 즉시 삭제해야 하는 경우(예: 기밀 유지, 개인 정보 보호 또는 규정 준수를 위해). </t>
+          <t xml:space="preserve">예를 들어 애플리케이션이 기밀성, 개인 정보 보호 또는 규정 준수를 위해 삭제된 정보가 즉시 삭제되도록 해야 하는 경우와 같이 특정 Blob 컨테이너에 대해 '일시 삭제'를 선택적으로 사용하지 않도록 설정하는 것이 좋습니다. </t>
         </is>
       </c>
       <c r="E13" s="21" t="inlineStr">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="D14" s="21" t="inlineStr">
         <is>
-          <t>컨테이너에 대한 일시 삭제를 사용하면 컨테이너가 삭제된 후(예: 실수로 인한 삭제 작업에서 복구) 복구할 수 있습니다.</t>
+          <t>컨테이너에 대한 일시 삭제를 사용하면 컨테이너가 삭제된 후 컨테이너를 복구할 수 있습니다(예: 실수로 인한 삭제 작업에서 복구).</t>
         </is>
       </c>
       <c r="E14" s="21" t="inlineStr">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="D15" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">특정 Blob 컨테이너에 대해 '일시 삭제'를 선택적으로 사용하지 않도록 설정하는 것이 좋습니다(예: 애플리케이션이 삭제된 정보를 즉시 삭제해야 하는 경우(예: 기밀 유지, 개인 정보 보호 또는 규정 준수를 위해). </t>
+          <t xml:space="preserve">예를 들어 애플리케이션이 기밀성, 개인 정보 보호 또는 규정 준수를 위해 삭제된 정보가 즉시 삭제되도록 해야 하는 경우와 같이 특정 Blob 컨테이너에 대해 '일시 삭제'를 선택적으로 사용하지 않도록 설정하는 것이 좋습니다. </t>
         </is>
       </c>
       <c r="E15" s="21" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="D16" s="21" t="inlineStr">
         <is>
-          <t>사용자가 삭제하기 전에 먼저 삭제 잠금을 제거하도록 강제하여 스토리지 계정이 실수로 삭제되는 것을 방지합니다.</t>
+          <t>사용자가 삭제하기 전에 먼저 삭제 잠금을 제거하도록 강제하여 저장소 계정이 실수로 삭제되는 것을 방지합니다.</t>
         </is>
       </c>
       <c r="E16" s="21" t="inlineStr">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>HTTPS 필요(즉, 스토리지 계정에서 포트 80 사용 안 함)Require HTTPS, i.e. disable port 80 on the storage account</t>
+          <t>HTTPS 필요, 즉 스토리지 계정에서 포트 80 사용 안 함Require HTTPS, i.e. disable port 80 on the storage account</t>
         </is>
       </c>
       <c r="D18" s="21" t="inlineStr">
@@ -1619,12 +1619,12 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>HTTPS를 적용할 때(HTTP를 사용하지 않도록 설정) 스토리지 계정에 사용자 지정 도메인(CNAME)을 사용하지 않는지 확인합니다.</t>
+          <t>HTTPS를 적용할 때(HTTP 사용 안 함) 스토리지 계정에 사용자 지정 도메인(CNAME)을 사용하지 않는지 확인합니다.</t>
         </is>
       </c>
       <c r="D19" s="21" t="inlineStr">
         <is>
-          <t>스토리지 계정에서 사용자 지정 도메인(호스트 이름)을 구성할 때 TLS/HTTPS가 필요한지 여부를 확인합니다. 그렇다면 스토리지 계정 앞에 Azure CDN을 배치해야 할 수 있습니다.</t>
+          <t>스토리지 계정에서 사용자 지정 도메인(호스트 이름)을 구성할 때 TLS/HTTPS가 필요한지 여부를 확인합니다. 이 경우 저장소 계정 앞에 Azure CDN을 배치해야 할 수 있습니다.</t>
         </is>
       </c>
       <c r="E19" s="21" t="inlineStr">
@@ -1669,7 +1669,7 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>SAS(공유 액세스 서명) 토큰을 HTTPS 연결로만 제한Limit shared access signature (SAS) tokens to HTTPS connections only</t>
+          <t>SAS(공유 액세스 서명) 토큰을 HTTPS 연결로만 제한</t>
         </is>
       </c>
       <c r="D20" s="21" t="inlineStr">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>AAD 토큰은 가능한 경우 공유 액세스 서명보다 선호되어야 합니다</t>
+          <t>AAD 토큰은 가능한 경우 공유 액세스 서명보다 우선해야 합니다</t>
         </is>
       </c>
       <c r="E21" s="21" t="inlineStr">
@@ -1774,7 +1774,7 @@
       </c>
       <c r="D22" s="21" t="inlineStr">
         <is>
-          <t>사용자, 그룹 또는 응용 프로그램에 역할을 할당할 때 해당 보안 주체는 해당 작업을 수행하는 데 필요한 권한만 부여합니다. 리소스에 대한 액세스를 제한하면 의도하지 않은 데이터 오용과 악의적인 데이터 오용을 방지하는 데 도움이 됩니다.</t>
+          <t>사용자, 그룹 또는 응용 프로그램에 역할을 할당할 때 해당 보안 주체가 작업을 수행하는 데 필요한 권한만 부여합니다. 리소스에 대한 액세스를 제한하면 의도하지 않은 데이터 오용과 악의적인 데이터 오용을 모두 방지할 수 있습니다.</t>
         </is>
       </c>
       <c r="E22" s="21" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="D23" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">사용자 위임 SAS는 Azure AD(Azure Active Directory) 자격 증명과 SAS에 대해 지정된 권한으로 보호됩니다. 사용자 위임 SAS는 범위 및 기능 측면에서 서비스 SAS와 유사하지만 서비스 SAS에 비해 보안 이점을 제공합니다. </t>
+          <t xml:space="preserve">사용자 위임 SAS는 Azure AD(Azure Active Directory) 자격 증명과 SAS에 지정된 권한으로 보호됩니다. 사용자 위임 SAS는 범위와 기능 측면에서 서비스 SAS와 유사하지만 서비스 SAS에 비해 보안상의 이점을 제공합니다. </t>
         </is>
       </c>
       <c r="E23" s="21" t="inlineStr">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">스토리지 계정 키('공유 키')에는 감사 기능이 거의 없습니다. 누가/언제 키 사본을 가져왔는지 모니터링할 수 있지만 키가 여러 사람의 손에 들어가면 특정 사용자에게 사용량을 귀속시키는 것은 불가능합니다. AAD 인증에만 의존하면 스토리지 액세스를 사용자에게 더 쉽게 연결할 수 있습니다. </t>
+          <t xml:space="preserve">스토리지 계정 키('공유 키')에는 감사 기능이 거의 없습니다. 누가/언제 키 사본을 가져왔는지 모니터링할 수 있지만, 키가 여러 사람의 손에 들어가면 특정 사용자의 사용을 귀속시키는 것은 불가능합니다. AAD 인증에만 의존하면 스토리지 액세스를 사용자에게 더 쉽게 연결할 수 있습니다. </t>
         </is>
       </c>
       <c r="E24" s="21" t="inlineStr">
@@ -1915,12 +1915,12 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor를 사용하여 스토리지 계정에 대한 컨트롤 플레인 작업을 감사하는 것이 좋습니다</t>
+          <t>Azure Monitor를 사용하여 스토리지 계정에 대한 컨트롤 플레인 작업을 감사하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D25" s="21" t="inlineStr">
         <is>
-          <t>활동 로그 데이터를 사용하여 스토리지 계정의 보안이 '언제', '누가', '무엇을' 및 '어떻게' 표시되거나 변경되는지(예: 스토리지 계정 키, 액세스 정책 등)를 식별합니다.</t>
+          <t>활동 로그 데이터를 사용하여 스토리지 계정의 보안을 보거나 변경하는 '시기', '누가', '무엇을' 및 '방법'(예: 스토리지 계정 키, 액세스 정책 등)을 식별합니다.</t>
         </is>
       </c>
       <c r="E25" s="21" t="inlineStr">
@@ -1970,7 +1970,7 @@
       </c>
       <c r="D26" s="21" t="inlineStr">
         <is>
-          <t>키 만료 정책을 사용하면 계정 액세스 키의 교체에 대한 미리 알림을 설정할 수 있습니다. 지정된 간격이 경과하고 키가 아직 회전되지 않은 경우 미리 알림이 표시됩니다.</t>
+          <t>키 만료 정책을 사용하면 계정 액세스 키 교체에 대한 미리 알림을 설정할 수 있습니다. 지정된 간격이 경과하고 키가 아직 회전되지 않은 경우 알림이 표시됩니다.</t>
         </is>
       </c>
       <c r="E26" s="21" t="inlineStr">
@@ -2015,12 +2015,12 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>SAS 만료 정책을 구성하는 것이 좋습니다</t>
+          <t>SAS 만료 정책 구성 고려</t>
         </is>
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t>SAS 만료 정책은 SAS가 유효한 권장 간격을 지정합니다. SAS 만료 정책은 서비스 SAS 또는 계정 SAS에 적용됩니다. 사용자가 유효 간격이 권장 간격보다 큰 서비스 SAS 또는 계정 SAS를 생성하면 경고가 표시됩니다.</t>
+          <t>SAS 만료 정책은 SAS가 유효한 권장 간격을 지정합니다. SAS 만료 정책은 서비스 SAS 또는 계정 SAS에 적용됩니다. 사용자가 권장 간격보다 큰 유효 간격을 사용하여 서비스 SAS 또는 계정 SAS를 생성하면 경고가 표시됩니다.</t>
         </is>
       </c>
       <c r="E27" s="21" t="inlineStr">
@@ -2064,12 +2064,12 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>SAS를 저장된 액세스 정책에 연결하는 것이 좋습니다</t>
+          <t>SAS를 저장된 액세스 정책에 연결하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D28" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">저장된 액세스 정책은 스토리지 계정 키를 다시 생성할 필요 없이 서비스 SAS에 대한 권한을 해지할 수 있는 옵션을 제공합니다. </t>
+          <t xml:space="preserve">저장된 액세스 정책은 스토리지 계정 키를 다시 생성할 필요 없이 서비스 SAS에 대한 권한을 취소하는 옵션을 제공합니다. </t>
         </is>
       </c>
       <c r="E28" s="21" t="inlineStr">
@@ -2108,12 +2108,12 @@
       </c>
       <c r="B29" s="21" t="inlineStr">
         <is>
-          <t>CI/CD (영문)</t>
+          <t>CI/CD (영어)</t>
         </is>
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>체크 인된 연결 문자열과 저장소 계정 키를 검색하도록 응용 프로그램의 소스 코드 리포지토리를 구성하는 것이 좋습니다.</t>
+          <t>체크 인된 연결 문자열 및 저장소 계정 키를 검색하도록 응용 프로그램의 소스 코드 리포지토리를 구성하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2212,7 +2212,7 @@
       </c>
       <c r="D31" s="21" t="inlineStr">
         <is>
-          <t>임시 SAS 서비스 SAS 또는 계정 SAS에서 단기 만료 시간을 사용합니다. 이러한 방식으로 SAS가 손상되더라도 짧은 시간 동안만 유효합니다. 이 방법은 저장된 액세스 정책을 참조할 수 없는 경우에 특히 중요합니다. 또한 단기 만료 시간은 Blob에 업로드할 수 있는 시간을 제한하여 Blob에 쓸 수 있는 데이터의 양을 제한합니다.</t>
+          <t>임시 SAS 서비스 SAS 또는 계정 SAS에서 단기 만료 시간을 사용합니다. 이러한 방식으로 SAS가 손상되더라도 짧은 시간 동안만 유효합니다. 이 방법은 저장된 액세스 정책을 참조할 수 없는 경우에 특히 중요합니다. 또한 단기 만료 시간은 업로드에 사용할 수 있는 시간을 제한하여 Blob에 쓸 수 있는 데이터의 양을 제한합니다.</t>
         </is>
       </c>
       <c r="E31" s="21" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="D32" s="21" t="inlineStr">
         <is>
-          <t>SAS를 만들 때 가능한 한 구체적이고 제한적이어야 합니다. 훨씬 더 광범위한 액세스를 제공하는 SAS보다 단일 리소스 및 작업에 대해 SAS를 선호합니다.</t>
+          <t>SAS를 만들 때는 가능한 한 구체적이고 제한적이어야 합니다. 훨씬 더 광범위한 액세스를 제공하는 SAS보다 단일 리소스 및 작업에 대해 SAS를 선호합니다.</t>
         </is>
       </c>
       <c r="E32" s="21" t="inlineStr">
@@ -2306,7 +2306,7 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>가능하면 SAS의 범위를 특정 클라이언트 IP 주소로 지정하는 것이 좋습니다</t>
+          <t>가능한 경우 SAS의 범위를 특정 클라이언트 IP 주소로 지정하는 것이 좋습니다</t>
         </is>
       </c>
       <c r="D33" s="21" t="inlineStr">
@@ -2361,7 +2361,7 @@
       </c>
       <c r="D34" s="21" t="inlineStr">
         <is>
-          <t>SAS는 클라이언트가 업로드하는 데이터의 양을 제한할 수 없습니다. 시간 경과에 따른 스토리지 용량의 가격 책정 모델을 감안할 때 클라이언트가 악의적으로 큰 콘텐츠를 업로드했는지 여부를 확인하는 것이 합리적일 수 있습니다.</t>
+          <t>SAS는 클라이언트가 업로드하는 데이터의 양을 제한할 수 없습니다. 시간 경과에 따른 스토리지 양의 가격 책정 모델을 고려할 때 클라이언트가 악의적으로 큰 콘텐츠를 업로드했는지 여부를 확인하는 것이 합리적일 수 있습니다.</t>
         </is>
       </c>
       <c r="E34" s="21" t="inlineStr">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="D38" s="21" t="inlineStr">
         <is>
-          <t>미사용 데이터는 항상 서버 쪽에서 암호화되며 클라이언트 쪽에서도 암호화될 수 있습니다. 서버 쪽 암호화는 플랫폼 관리형 키(기본값) 또는 고객 관리형 키를 사용하여 발생할 수 있습니다. 클라이언트 쪽 암호화는 클라이언트가 Azure Storage에 Blob 단위로 암호화/암호 해독 키를 제공하거나 클라이언트 쪽에서 암호화를 완전히 처리하여 발생할 수 있습니다. 따라서 기밀성 보장을 위해 Azure Storage에 전혀 의존하지 않습니다.</t>
+          <t>미사용 데이터는 항상 서버 쪽에서 암호화되며 클라이언트 쪽에서도 암호화될 수 있습니다. 서버 쪽 암호화는 플랫폼 관리형 키(기본값) 또는 고객 관리형 키를 사용하여 발생할 수 있습니다. 클라이언트 쪽 암호화는 클라이언트가 Azure Storage에 Blob별로 암호화/암호 해독 키를 제공하거나 클라이언트 쪽에서 암호화를 완전히 처리하여 발생할 수 있습니다. 따라서 기밀성 보장을 위해 Azure Storage에 전혀 의존하지 않습니다.</t>
         </is>
       </c>
       <c r="E38" s="21" t="inlineStr">
@@ -2598,7 +2598,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>어떤 플랫폼 암호화를 사용해야 하는지 결정합니다.</t>
+          <t>사용해야 하는 플랫폼 암호화를 결정합니다.</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>클라이언트 쪽 암호화를 사용해야 하는지 결정합니다.</t>
+          <t>사용해야 하는 클라이언트 쪽 암호화를 결정합니다.</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="D41" s="21" t="inlineStr">
         <is>
-          <t>Resource Graph Explorer(리소스 | where type == 'microsoft.storage/storageaccounts' | where properties['allowBlobPublicAccess'] == true)를 활용하여 익명 Blob 액세스를 허용하는 스토리지 계정을 찾습니다.</t>
+          <t>Resource Graph Explorer(resources | where type == 'microsoft.storage/storageaccounts' | where properties['allowBlobPublicAccess'] == true)를 활용하여 익명 Blob 액세스를 허용하는 스토리지 계정을 찾습니다.</t>
         </is>
       </c>
       <c r="E41" s="21" t="inlineStr">
@@ -7077,7 +7077,7 @@
     <row r="5">
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>해당 사항 없음</t>
+          <t>해당 없음</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -7099,7 +7099,7 @@
     <row r="6">
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>필요하지 않음</t>
+          <t>필요 없음</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -7109,7 +7109,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>필요하지 않음</t>
+          <t>필요 없음</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
